--- a/M0.4D0.0001E0.9A0.8_100x100_first_cluster.xlsx
+++ b/M0.4D0.0001E0.9A0.8_100x100_first_cluster.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B408"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -605,6 +605,3916 @@
         <v>5750001</v>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>00000460</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>695001</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>00000461</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>245001</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>00000462</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>80001</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>00000463</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>335001</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>00000464</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>1010001</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>00000457</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>4745001</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>00000465</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>95001</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>00000467</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>1070001</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>00000468</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>80001</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>00000469</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>830001</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>00000470</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>110001</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>00000459</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>5930001</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>00000472</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>170001</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>00000471</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>1445001</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>00000474</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>65001</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>00000475</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>470001</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>00000476</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>185001</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>00000477</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>155001</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>00000478</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>335001</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>00000473</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>2975001</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>00000480</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>65001</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>00000481</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>80001</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>00000466</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>8495001</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>00000483</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>140001</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>00000484</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>530001</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>00000485</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>500001</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>00000479</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>4955001</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>00000486</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>110001</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>00000487</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>95001</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>00000489</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>80001</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>00000488</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>140001</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>00000491</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>140001</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>00000490</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>215001</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>00000493</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>95001</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>00000494</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>200001</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>00000495</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>440001</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>00000492</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>830001</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>00000496</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>80001</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>00000497</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>110001</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>00000498</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>125001</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>00000499</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>80001</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>00000500</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>125001</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>00000501</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>125001</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>00000502</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>95001</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>00000503</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>95001</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>00000504</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>95001</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>00000505</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>65001</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>00000482</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>5570001</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>00000506</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>290001</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>00000509</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>140001</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>00000507</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>425001</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>00000510</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>110001</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>00000511</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>365001</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>00000513</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>140001</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>00000512</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>395001</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>00000508</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>1910001</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>00000514</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>1340001</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>00000516</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>245001</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>00000517</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>215001</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>00000519</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>470001</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>00000520</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>155001</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>00000521</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>155001</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>00000522</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>95001</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>00000518</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>1490001</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>00000524</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>95001</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>00000525</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>110001</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>00000523</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>1925001</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>00000526</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>1250001</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>00000528</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>185001</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>00000529</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>95001</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>00000527</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>1985001</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>00000515</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>6635001</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>00000532</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>140001</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>00000531</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>485001</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>00000533</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>185001</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>00000534</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>170001</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>00000536</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>80001</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>00000535</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>140001</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>00000538</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>335001</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>00000537</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>440001</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>00000540</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>590001</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>00000530</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>3350001</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>00000541</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>110001</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>00000543</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>110001</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>00000544</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>185001</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>00000545</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>65001</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>00000542</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>755001</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>00000539</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>1715001</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>00000548</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>95001</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>00000547</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>470001</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>00000550</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>110001</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>00000551</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>800001</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>00000552</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>140001</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>00000553</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>125001</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>00000549</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>1475001</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>00000554</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>815001</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>00000556</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>50001</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>00000555</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>995001</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>00000558</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>110001</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>00000559</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>110001</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>00000560</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>80001</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>00000546</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>3620001</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>00000562</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>110001</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>00000563</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>455001</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>00000564</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>125001</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>00000557</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>1310001</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>00000566</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>50001</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>00000565</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>170001</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>00000567</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>230001</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>00000568</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>185001</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>00000561</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>1070001</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>00000570</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>110001</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>00000572</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>155001</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>00000573</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>50001</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>00000574</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>140001</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>00000569</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>785001</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>00000575</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>890001</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>00000576</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>935001</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>00000578</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>1085001</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>00000579</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>125001</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>00000580</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>65001</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>00000581</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>605001</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>00000577</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>3050001</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>00000582</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>905001</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>00000584</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>125001</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>00000571</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>4730001</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>00000585</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>80001</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>00000587</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>335001</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>00000583</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>1565001</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>00000589</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>155001</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>00000586</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>1685001</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>00000590</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>890001</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>00000592</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>95001</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>00000593</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>125001</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>00000594</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>95001</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>00000591</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>965001</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>00000595</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>200001</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>00000596</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>200001</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>00000588</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>2510001</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>00000597</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>1460001</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>00000598</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>1505001</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>00000599</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>1655001</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>00000602</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>290001</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>00000603</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>245001</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>00000601</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>2240001</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>00000605</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>320001</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>00000606</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>80001</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>00000607</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>65001</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>00000604</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>2075001</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>00000608</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>155001</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>00000609</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>140001</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>00000611</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>125001</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>00000612</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>140001</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>00000613</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>125001</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>00000610</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>785001</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>00000614</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>680001</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>00000615</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>425001</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>00000617</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>95001</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>00000616</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>245001</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>00000619</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>95001</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>00000620</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>245001</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>00000621</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>200001</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>00000622</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>365001</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>00000618</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>1175001</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>00000623</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>260001</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>00000624</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>275001</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>00000626</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>65001</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>00000627</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>1520001</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>00000628</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>1580001</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>00000600</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>9320001</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>00000629</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>230001</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>00000631</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>965001</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>00000632</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>215001</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>00000630</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>1220001</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>00000634</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>140001</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>00000625</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>4970001</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>00000635</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>110001</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>00000636</t>
+        </is>
+      </c>
+      <c r="B195" t="n">
+        <v>110001</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>00000633</t>
+        </is>
+      </c>
+      <c r="B196" t="n">
+        <v>320001</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>00000637</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>680001</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>00000640</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>80001</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>00000639</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>2810001</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>00000642</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>650001</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>00000638</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>3470001</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>00000643</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>275001</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>00000644</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>605001</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>00000645</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>770001</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>00000641</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>4130001</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>00000648</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>80001</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>00000647</t>
+        </is>
+      </c>
+      <c r="B207" t="n">
+        <v>815001</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>00000650</t>
+        </is>
+      </c>
+      <c r="B208" t="n">
+        <v>1190001</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>00000651</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>140001</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>00000652</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>170001</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>00000653</t>
+        </is>
+      </c>
+      <c r="B211" t="n">
+        <v>140001</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>00000646</t>
+        </is>
+      </c>
+      <c r="B212" t="n">
+        <v>3200001</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>00000649</t>
+        </is>
+      </c>
+      <c r="B213" t="n">
+        <v>3050001</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>00000656</t>
+        </is>
+      </c>
+      <c r="B214" t="n">
+        <v>125001</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>00000657</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>485001</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>00000654</t>
+        </is>
+      </c>
+      <c r="B216" t="n">
+        <v>1550001</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>00000655</t>
+        </is>
+      </c>
+      <c r="B217" t="n">
+        <v>1910001</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>00000658</t>
+        </is>
+      </c>
+      <c r="B218" t="n">
+        <v>2300001</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>00000660</t>
+        </is>
+      </c>
+      <c r="B219" t="n">
+        <v>2060001</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>00000662</t>
+        </is>
+      </c>
+      <c r="B220" t="n">
+        <v>665001</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>00000659</t>
+        </is>
+      </c>
+      <c r="B221" t="n">
+        <v>3575001</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>00000664</t>
+        </is>
+      </c>
+      <c r="B222" t="n">
+        <v>245001</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>00000663</t>
+        </is>
+      </c>
+      <c r="B223" t="n">
+        <v>695001</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>00000665</t>
+        </is>
+      </c>
+      <c r="B224" t="n">
+        <v>425001</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>00000667</t>
+        </is>
+      </c>
+      <c r="B225" t="n">
+        <v>65001</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>00000666</t>
+        </is>
+      </c>
+      <c r="B226" t="n">
+        <v>590001</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>00000661</t>
+        </is>
+      </c>
+      <c r="B227" t="n">
+        <v>2315001</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>00000669</t>
+        </is>
+      </c>
+      <c r="B228" t="n">
+        <v>200001</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>00000668</t>
+        </is>
+      </c>
+      <c r="B229" t="n">
+        <v>1490001</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>00000672</t>
+        </is>
+      </c>
+      <c r="B230" t="n">
+        <v>605001</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>00000670</t>
+        </is>
+      </c>
+      <c r="B231" t="n">
+        <v>3500001</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>00000674</t>
+        </is>
+      </c>
+      <c r="B232" t="n">
+        <v>110001</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>00000675</t>
+        </is>
+      </c>
+      <c r="B233" t="n">
+        <v>65001</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>00000676</t>
+        </is>
+      </c>
+      <c r="B234" t="n">
+        <v>2090001</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>00000677</t>
+        </is>
+      </c>
+      <c r="B235" t="n">
+        <v>170001</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>00000678</t>
+        </is>
+      </c>
+      <c r="B236" t="n">
+        <v>65001</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>00000679</t>
+        </is>
+      </c>
+      <c r="B237" t="n">
+        <v>1115001</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>00000671</t>
+        </is>
+      </c>
+      <c r="B238" t="n">
+        <v>7235001</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>00000681</t>
+        </is>
+      </c>
+      <c r="B239" t="n">
+        <v>95001</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>00000682</t>
+        </is>
+      </c>
+      <c r="B240" t="n">
+        <v>485001</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>00000680</t>
+        </is>
+      </c>
+      <c r="B241" t="n">
+        <v>1505001</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>00000684</t>
+        </is>
+      </c>
+      <c r="B242" t="n">
+        <v>215001</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>00000685</t>
+        </is>
+      </c>
+      <c r="B243" t="n">
+        <v>230001</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>00000683</t>
+        </is>
+      </c>
+      <c r="B244" t="n">
+        <v>1955001</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>00000687</t>
+        </is>
+      </c>
+      <c r="B245" t="n">
+        <v>185001</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>00000688</t>
+        </is>
+      </c>
+      <c r="B246" t="n">
+        <v>155001</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>00000673</t>
+        </is>
+      </c>
+      <c r="B247" t="n">
+        <v>9335001</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>00000690</t>
+        </is>
+      </c>
+      <c r="B248" t="n">
+        <v>125001</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>00000686</t>
+        </is>
+      </c>
+      <c r="B249" t="n">
+        <v>2345001</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>00000691</t>
+        </is>
+      </c>
+      <c r="B250" t="n">
+        <v>575001</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>00000693</t>
+        </is>
+      </c>
+      <c r="B251" t="n">
+        <v>185001</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>00000694</t>
+        </is>
+      </c>
+      <c r="B252" t="n">
+        <v>710001</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>00000695</t>
+        </is>
+      </c>
+      <c r="B253" t="n">
+        <v>65001</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>00000696</t>
+        </is>
+      </c>
+      <c r="B254" t="n">
+        <v>155001</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>00000689</t>
+        </is>
+      </c>
+      <c r="B255" t="n">
+        <v>2795001</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>00000698</t>
+        </is>
+      </c>
+      <c r="B256" t="n">
+        <v>260001</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>00000699</t>
+        </is>
+      </c>
+      <c r="B257" t="n">
+        <v>110001</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>00000700</t>
+        </is>
+      </c>
+      <c r="B258" t="n">
+        <v>95001</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>00000697</t>
+        </is>
+      </c>
+      <c r="B259" t="n">
+        <v>620001</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>00000702</t>
+        </is>
+      </c>
+      <c r="B260" t="n">
+        <v>140001</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>00000703</t>
+        </is>
+      </c>
+      <c r="B261" t="n">
+        <v>140001</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>00000704</t>
+        </is>
+      </c>
+      <c r="B262" t="n">
+        <v>95001</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>00000705</t>
+        </is>
+      </c>
+      <c r="B263" t="n">
+        <v>785001</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>00000706</t>
+        </is>
+      </c>
+      <c r="B264" t="n">
+        <v>140001</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>00000692</t>
+        </is>
+      </c>
+      <c r="B265" t="n">
+        <v>4145001</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>00000707</t>
+        </is>
+      </c>
+      <c r="B266" t="n">
+        <v>710001</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>00000708</t>
+        </is>
+      </c>
+      <c r="B267" t="n">
+        <v>500001</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>00000701</t>
+        </is>
+      </c>
+      <c r="B268" t="n">
+        <v>2600001</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>00000711</t>
+        </is>
+      </c>
+      <c r="B269" t="n">
+        <v>455001</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>00000709</t>
+        </is>
+      </c>
+      <c r="B270" t="n">
+        <v>1145001</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>00000712</t>
+        </is>
+      </c>
+      <c r="B271" t="n">
+        <v>230001</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>00000713</t>
+        </is>
+      </c>
+      <c r="B272" t="n">
+        <v>305001</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>00000715</t>
+        </is>
+      </c>
+      <c r="B273" t="n">
+        <v>215001</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>00000716</t>
+        </is>
+      </c>
+      <c r="B274" t="n">
+        <v>230001</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>00000714</t>
+        </is>
+      </c>
+      <c r="B275" t="n">
+        <v>755001</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>00000718</t>
+        </is>
+      </c>
+      <c r="B276" t="n">
+        <v>95001</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>00000717</t>
+        </is>
+      </c>
+      <c r="B277" t="n">
+        <v>560001</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>00000719</t>
+        </is>
+      </c>
+      <c r="B278" t="n">
+        <v>740001</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>00000721</t>
+        </is>
+      </c>
+      <c r="B279" t="n">
+        <v>1235001</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>00000722</t>
+        </is>
+      </c>
+      <c r="B280" t="n">
+        <v>440001</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>00000710</t>
+        </is>
+      </c>
+      <c r="B281" t="n">
+        <v>4430001</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>00000724</t>
+        </is>
+      </c>
+      <c r="B282" t="n">
+        <v>65001</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>00000725</t>
+        </is>
+      </c>
+      <c r="B283" t="n">
+        <v>65001</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>00000726</t>
+        </is>
+      </c>
+      <c r="B284" t="n">
+        <v>515001</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>00000727</t>
+        </is>
+      </c>
+      <c r="B285" t="n">
+        <v>185001</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>00000728</t>
+        </is>
+      </c>
+      <c r="B286" t="n">
+        <v>920001</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>00000729</t>
+        </is>
+      </c>
+      <c r="B287" t="n">
+        <v>950001</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>00000730</t>
+        </is>
+      </c>
+      <c r="B288" t="n">
+        <v>1550001</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>00000720</t>
+        </is>
+      </c>
+      <c r="B289" t="n">
+        <v>6785001</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>00000732</t>
+        </is>
+      </c>
+      <c r="B290" t="n">
+        <v>65001</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>00000733</t>
+        </is>
+      </c>
+      <c r="B291" t="n">
+        <v>335001</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>00000723</t>
+        </is>
+      </c>
+      <c r="B292" t="n">
+        <v>5945001</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>00000734</t>
+        </is>
+      </c>
+      <c r="B293" t="n">
+        <v>890001</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>00000735</t>
+        </is>
+      </c>
+      <c r="B294" t="n">
+        <v>320001</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>00000737</t>
+        </is>
+      </c>
+      <c r="B295" t="n">
+        <v>125001</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>00000738</t>
+        </is>
+      </c>
+      <c r="B296" t="n">
+        <v>305001</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>00000739</t>
+        </is>
+      </c>
+      <c r="B297" t="n">
+        <v>185001</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>00000740</t>
+        </is>
+      </c>
+      <c r="B298" t="n">
+        <v>80001</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>00000736</t>
+        </is>
+      </c>
+      <c r="B299" t="n">
+        <v>1235001</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>00000741</t>
+        </is>
+      </c>
+      <c r="B300" t="n">
+        <v>605001</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>00000743</t>
+        </is>
+      </c>
+      <c r="B301" t="n">
+        <v>125001</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>00000742</t>
+        </is>
+      </c>
+      <c r="B302" t="n">
+        <v>320001</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>00000744</t>
+        </is>
+      </c>
+      <c r="B303" t="n">
+        <v>200001</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>00000746</t>
+        </is>
+      </c>
+      <c r="B304" t="n">
+        <v>140001</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>00000745</t>
+        </is>
+      </c>
+      <c r="B305" t="n">
+        <v>1205001</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>00000747</t>
+        </is>
+      </c>
+      <c r="B306" t="n">
+        <v>1340001</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>00000749</t>
+        </is>
+      </c>
+      <c r="B307" t="n">
+        <v>110001</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>00000748</t>
+        </is>
+      </c>
+      <c r="B308" t="n">
+        <v>455001</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>00000731</t>
+        </is>
+      </c>
+      <c r="B309" t="n">
+        <v>5375001</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>00000752</t>
+        </is>
+      </c>
+      <c r="B310" t="n">
+        <v>125001</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>00000753</t>
+        </is>
+      </c>
+      <c r="B311" t="n">
+        <v>230001</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>00000754</t>
+        </is>
+      </c>
+      <c r="B312" t="n">
+        <v>155001</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>00000755</t>
+        </is>
+      </c>
+      <c r="B313" t="n">
+        <v>470001</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>00000756</t>
+        </is>
+      </c>
+      <c r="B314" t="n">
+        <v>80001</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>00000757</t>
+        </is>
+      </c>
+      <c r="B315" t="n">
+        <v>380001</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>00000750</t>
+        </is>
+      </c>
+      <c r="B316" t="n">
+        <v>2180001</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>00000758</t>
+        </is>
+      </c>
+      <c r="B317" t="n">
+        <v>125001</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>00000760</t>
+        </is>
+      </c>
+      <c r="B318" t="n">
+        <v>65001</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>00000759</t>
+        </is>
+      </c>
+      <c r="B319" t="n">
+        <v>350001</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>00000751</t>
+        </is>
+      </c>
+      <c r="B320" t="n">
+        <v>2630001</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>00000763</t>
+        </is>
+      </c>
+      <c r="B321" t="n">
+        <v>200001</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>00000762</t>
+        </is>
+      </c>
+      <c r="B322" t="n">
+        <v>305001</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>00000764</t>
+        </is>
+      </c>
+      <c r="B323" t="n">
+        <v>320001</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>00000766</t>
+        </is>
+      </c>
+      <c r="B324" t="n">
+        <v>395001</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>00000767</t>
+        </is>
+      </c>
+      <c r="B325" t="n">
+        <v>125001</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>00000768</t>
+        </is>
+      </c>
+      <c r="B326" t="n">
+        <v>965001</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>00000769</t>
+        </is>
+      </c>
+      <c r="B327" t="n">
+        <v>215001</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>00000761</t>
+        </is>
+      </c>
+      <c r="B328" t="n">
+        <v>3005001</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>00000770</t>
+        </is>
+      </c>
+      <c r="B329" t="n">
+        <v>470001</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>00000772</t>
+        </is>
+      </c>
+      <c r="B330" t="n">
+        <v>500001</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>00000771</t>
+        </is>
+      </c>
+      <c r="B331" t="n">
+        <v>1025001</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>00000773</t>
+        </is>
+      </c>
+      <c r="B332" t="n">
+        <v>635001</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>00000775</t>
+        </is>
+      </c>
+      <c r="B333" t="n">
+        <v>125001</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>00000776</t>
+        </is>
+      </c>
+      <c r="B334" t="n">
+        <v>530001</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>00000774</t>
+        </is>
+      </c>
+      <c r="B335" t="n">
+        <v>860001</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>00000778</t>
+        </is>
+      </c>
+      <c r="B336" t="n">
+        <v>95001</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>00000777</t>
+        </is>
+      </c>
+      <c r="B337" t="n">
+        <v>125001</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>00000779</t>
+        </is>
+      </c>
+      <c r="B338" t="n">
+        <v>230001</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>00000781</t>
+        </is>
+      </c>
+      <c r="B339" t="n">
+        <v>125001</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>00000782</t>
+        </is>
+      </c>
+      <c r="B340" t="n">
+        <v>485001</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>00000765</t>
+        </is>
+      </c>
+      <c r="B341" t="n">
+        <v>5825001</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>00000783</t>
+        </is>
+      </c>
+      <c r="B342" t="n">
+        <v>545001</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>00000780</t>
+        </is>
+      </c>
+      <c r="B343" t="n">
+        <v>1670001</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>00000784</t>
+        </is>
+      </c>
+      <c r="B344" t="n">
+        <v>965001</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>00000786</t>
+        </is>
+      </c>
+      <c r="B345" t="n">
+        <v>485001</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>00000787</t>
+        </is>
+      </c>
+      <c r="B346" t="n">
+        <v>125001</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>00000788</t>
+        </is>
+      </c>
+      <c r="B347" t="n">
+        <v>140001</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>00000790</t>
+        </is>
+      </c>
+      <c r="B348" t="n">
+        <v>500001</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>00000789</t>
+        </is>
+      </c>
+      <c r="B349" t="n">
+        <v>605001</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>00000792</t>
+        </is>
+      </c>
+      <c r="B350" t="n">
+        <v>80001</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>00000785</t>
+        </is>
+      </c>
+      <c r="B351" t="n">
+        <v>1640001</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>00000793</t>
+        </is>
+      </c>
+      <c r="B352" t="n">
+        <v>65001</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>00000794</t>
+        </is>
+      </c>
+      <c r="B353" t="n">
+        <v>110001</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>00000795</t>
+        </is>
+      </c>
+      <c r="B354" t="n">
+        <v>380001</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>00000791</t>
+        </is>
+      </c>
+      <c r="B355" t="n">
+        <v>620001</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>00000796</t>
+        </is>
+      </c>
+      <c r="B356" t="n">
+        <v>980001</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>00000799</t>
+        </is>
+      </c>
+      <c r="B357" t="n">
+        <v>125001</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>00000797</t>
+        </is>
+      </c>
+      <c r="B358" t="n">
+        <v>980001</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>00000798</t>
+        </is>
+      </c>
+      <c r="B359" t="n">
+        <v>1655001</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>00000802</t>
+        </is>
+      </c>
+      <c r="B360" t="n">
+        <v>440001</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>00000800</t>
+        </is>
+      </c>
+      <c r="B361" t="n">
+        <v>1400001</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>00000804</t>
+        </is>
+      </c>
+      <c r="B362" t="n">
+        <v>80001</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>00000803</t>
+        </is>
+      </c>
+      <c r="B363" t="n">
+        <v>425001</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>00000801</t>
+        </is>
+      </c>
+      <c r="B364" t="n">
+        <v>3050001</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>00000807</t>
+        </is>
+      </c>
+      <c r="B365" t="n">
+        <v>230001</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>00000806</t>
+        </is>
+      </c>
+      <c r="B366" t="n">
+        <v>2975001</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>00000808</t>
+        </is>
+      </c>
+      <c r="B367" t="n">
+        <v>1505001</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>00000809</t>
+        </is>
+      </c>
+      <c r="B368" t="n">
+        <v>440001</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>00000805</t>
+        </is>
+      </c>
+      <c r="B369" t="n">
+        <v>8315001</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>00000812</t>
+        </is>
+      </c>
+      <c r="B370" t="n">
+        <v>125001</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>00000813</t>
+        </is>
+      </c>
+      <c r="B371" t="n">
+        <v>260001</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>00000810</t>
+        </is>
+      </c>
+      <c r="B372" t="n">
+        <v>5900001</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>00000815</t>
+        </is>
+      </c>
+      <c r="B373" t="n">
+        <v>95001</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>00000811</t>
+        </is>
+      </c>
+      <c r="B374" t="n">
+        <v>6275001</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>00000816</t>
+        </is>
+      </c>
+      <c r="B375" t="n">
+        <v>530001</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>00000814</t>
+        </is>
+      </c>
+      <c r="B376" t="n">
+        <v>1670001</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>00000817</t>
+        </is>
+      </c>
+      <c r="B377" t="n">
+        <v>515001</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>00000819</t>
+        </is>
+      </c>
+      <c r="B378" t="n">
+        <v>170001</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>00000818</t>
+        </is>
+      </c>
+      <c r="B379" t="n">
+        <v>500001</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>00000821</t>
+        </is>
+      </c>
+      <c r="B380" t="n">
+        <v>125001</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>00000822</t>
+        </is>
+      </c>
+      <c r="B381" t="n">
+        <v>215001</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>00000823</t>
+        </is>
+      </c>
+      <c r="B382" t="n">
+        <v>1100001</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>00000825</t>
+        </is>
+      </c>
+      <c r="B383" t="n">
+        <v>125001</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>00000820</t>
+        </is>
+      </c>
+      <c r="B384" t="n">
+        <v>1460001</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>00000826</t>
+        </is>
+      </c>
+      <c r="B385" t="n">
+        <v>125001</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>00000827</t>
+        </is>
+      </c>
+      <c r="B386" t="n">
+        <v>140001</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>00000828</t>
+        </is>
+      </c>
+      <c r="B387" t="n">
+        <v>110001</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>00000829</t>
+        </is>
+      </c>
+      <c r="B388" t="n">
+        <v>725001</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>00000830</t>
+        </is>
+      </c>
+      <c r="B389" t="n">
+        <v>1280001</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>00000824</t>
+        </is>
+      </c>
+      <c r="B390" t="n">
+        <v>2630001</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>00000833</t>
+        </is>
+      </c>
+      <c r="B391" t="n">
+        <v>155001</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>00000832</t>
+        </is>
+      </c>
+      <c r="B392" t="n">
+        <v>305001</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>00000835</t>
+        </is>
+      </c>
+      <c r="B393" t="n">
+        <v>125001</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>00000834</t>
+        </is>
+      </c>
+      <c r="B394" t="n">
+        <v>200001</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>00000836</t>
+        </is>
+      </c>
+      <c r="B395" t="n">
+        <v>125001</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>00000838</t>
+        </is>
+      </c>
+      <c r="B396" t="n">
+        <v>95001</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>00000837</t>
+        </is>
+      </c>
+      <c r="B397" t="n">
+        <v>770001</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>00000840</t>
+        </is>
+      </c>
+      <c r="B398" t="n">
+        <v>755001</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>00000839</t>
+        </is>
+      </c>
+      <c r="B399" t="n">
+        <v>2420001</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>00000841</t>
+        </is>
+      </c>
+      <c r="B400" t="n">
+        <v>2045001</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>00000843</t>
+        </is>
+      </c>
+      <c r="B401" t="n">
+        <v>95001</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>00000831</t>
+        </is>
+      </c>
+      <c r="B402" t="n">
+        <v>5015001</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>00000845</t>
+        </is>
+      </c>
+      <c r="B403" t="n">
+        <v>50001</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>00000844</t>
+        </is>
+      </c>
+      <c r="B404" t="n">
+        <v>500001</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>00000842</t>
+        </is>
+      </c>
+      <c r="B405" t="n">
+        <v>3290001</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>00000848</t>
+        </is>
+      </c>
+      <c r="B406" t="n">
+        <v>80001</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>00000847</t>
+        </is>
+      </c>
+      <c r="B407" t="n">
+        <v>2345001</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>00000850</t>
+        </is>
+      </c>
+      <c r="B408" t="n">
+        <v>890001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/M0.4D0.0001E0.9A0.8_100x100_first_cluster.xlsx
+++ b/M0.4D0.0001E0.9A0.8_100x100_first_cluster.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B408"/>
+  <dimension ref="A1:B601"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4515,6 +4515,1936 @@
         <v>890001</v>
       </c>
     </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>00000851</t>
+        </is>
+      </c>
+      <c r="B409" t="n">
+        <v>95001</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>00000852</t>
+        </is>
+      </c>
+      <c r="B410" t="n">
+        <v>80001</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>00000849</t>
+        </is>
+      </c>
+      <c r="B411" t="n">
+        <v>1730001</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>00000846</t>
+        </is>
+      </c>
+      <c r="B412" t="n">
+        <v>3740001</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>00000854</t>
+        </is>
+      </c>
+      <c r="B413" t="n">
+        <v>260001</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>00000853</t>
+        </is>
+      </c>
+      <c r="B414" t="n">
+        <v>335001</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>00000858</t>
+        </is>
+      </c>
+      <c r="B415" t="n">
+        <v>95001</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>00000857</t>
+        </is>
+      </c>
+      <c r="B416" t="n">
+        <v>1220001</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>00000861</t>
+        </is>
+      </c>
+      <c r="B417" t="n">
+        <v>2735001</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>00000864</t>
+        </is>
+      </c>
+      <c r="B418" t="n">
+        <v>275001</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>00000855</t>
+        </is>
+      </c>
+      <c r="B419" t="n">
+        <v>5465001</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>00000866</t>
+        </is>
+      </c>
+      <c r="B420" t="n">
+        <v>815001</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>00000867</t>
+        </is>
+      </c>
+      <c r="B421" t="n">
+        <v>530001</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>00000859</t>
+        </is>
+      </c>
+      <c r="B422" t="n">
+        <v>6845001</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>00000869</t>
+        </is>
+      </c>
+      <c r="B423" t="n">
+        <v>170001</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>00000865</t>
+        </is>
+      </c>
+      <c r="B424" t="n">
+        <v>2975001</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>00000871</t>
+        </is>
+      </c>
+      <c r="B425" t="n">
+        <v>155001</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>00000872</t>
+        </is>
+      </c>
+      <c r="B426" t="n">
+        <v>155001</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>00000868</t>
+        </is>
+      </c>
+      <c r="B427" t="n">
+        <v>980001</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>00000870</t>
+        </is>
+      </c>
+      <c r="B428" t="n">
+        <v>680001</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>00000874</t>
+        </is>
+      </c>
+      <c r="B429" t="n">
+        <v>470001</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>00000876</t>
+        </is>
+      </c>
+      <c r="B430" t="n">
+        <v>995001</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>00000877</t>
+        </is>
+      </c>
+      <c r="B431" t="n">
+        <v>80001</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>00000875</t>
+        </is>
+      </c>
+      <c r="B432" t="n">
+        <v>1490001</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>00000878</t>
+        </is>
+      </c>
+      <c r="B433" t="n">
+        <v>200001</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>00000879</t>
+        </is>
+      </c>
+      <c r="B434" t="n">
+        <v>1190001</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>00000880</t>
+        </is>
+      </c>
+      <c r="B435" t="n">
+        <v>1145001</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>00000873</t>
+        </is>
+      </c>
+      <c r="B436" t="n">
+        <v>3530001</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>00000881</t>
+        </is>
+      </c>
+      <c r="B437" t="n">
+        <v>590001</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>00000882</t>
+        </is>
+      </c>
+      <c r="B438" t="n">
+        <v>950001</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>00000885</t>
+        </is>
+      </c>
+      <c r="B439" t="n">
+        <v>110001</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>00000884</t>
+        </is>
+      </c>
+      <c r="B440" t="n">
+        <v>515001</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>00000883</t>
+        </is>
+      </c>
+      <c r="B441" t="n">
+        <v>800001</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>00000888</t>
+        </is>
+      </c>
+      <c r="B442" t="n">
+        <v>485001</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>00000889</t>
+        </is>
+      </c>
+      <c r="B443" t="n">
+        <v>560001</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>00000886</t>
+        </is>
+      </c>
+      <c r="B444" t="n">
+        <v>2030001</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>00000887</t>
+        </is>
+      </c>
+      <c r="B445" t="n">
+        <v>2300001</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>00000892</t>
+        </is>
+      </c>
+      <c r="B446" t="n">
+        <v>590001</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>00000893</t>
+        </is>
+      </c>
+      <c r="B447" t="n">
+        <v>110001</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>00000890</t>
+        </is>
+      </c>
+      <c r="B448" t="n">
+        <v>1955001</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>00000891</t>
+        </is>
+      </c>
+      <c r="B449" t="n">
+        <v>1400001</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>00000895</t>
+        </is>
+      </c>
+      <c r="B450" t="n">
+        <v>290001</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>00000896</t>
+        </is>
+      </c>
+      <c r="B451" t="n">
+        <v>170001</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>00000898</t>
+        </is>
+      </c>
+      <c r="B452" t="n">
+        <v>140001</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>00000897</t>
+        </is>
+      </c>
+      <c r="B453" t="n">
+        <v>185001</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>00000900</t>
+        </is>
+      </c>
+      <c r="B454" t="n">
+        <v>80001</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>00000899</t>
+        </is>
+      </c>
+      <c r="B455" t="n">
+        <v>185001</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>00000894</t>
+        </is>
+      </c>
+      <c r="B456" t="n">
+        <v>890001</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>00000901</t>
+        </is>
+      </c>
+      <c r="B457" t="n">
+        <v>275001</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>00000902</t>
+        </is>
+      </c>
+      <c r="B458" t="n">
+        <v>245001</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>00000903</t>
+        </is>
+      </c>
+      <c r="B459" t="n">
+        <v>380001</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>00000904</t>
+        </is>
+      </c>
+      <c r="B460" t="n">
+        <v>320001</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>00000906</t>
+        </is>
+      </c>
+      <c r="B461" t="n">
+        <v>95001</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>00000907</t>
+        </is>
+      </c>
+      <c r="B462" t="n">
+        <v>65001</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>00000908</t>
+        </is>
+      </c>
+      <c r="B463" t="n">
+        <v>155001</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>00000910</t>
+        </is>
+      </c>
+      <c r="B464" t="n">
+        <v>290001</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>00000911</t>
+        </is>
+      </c>
+      <c r="B465" t="n">
+        <v>80001</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>00000912</t>
+        </is>
+      </c>
+      <c r="B466" t="n">
+        <v>170001</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>00000913</t>
+        </is>
+      </c>
+      <c r="B467" t="n">
+        <v>230001</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>00000914</t>
+        </is>
+      </c>
+      <c r="B468" t="n">
+        <v>275001</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>00000909</t>
+        </is>
+      </c>
+      <c r="B469" t="n">
+        <v>1295001</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>00000915</t>
+        </is>
+      </c>
+      <c r="B470" t="n">
+        <v>125001</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>00000917</t>
+        </is>
+      </c>
+      <c r="B471" t="n">
+        <v>470001</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>00000918</t>
+        </is>
+      </c>
+      <c r="B472" t="n">
+        <v>1010001</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>00000919</t>
+        </is>
+      </c>
+      <c r="B473" t="n">
+        <v>290001</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>00000920</t>
+        </is>
+      </c>
+      <c r="B474" t="n">
+        <v>155001</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>00000921</t>
+        </is>
+      </c>
+      <c r="B475" t="n">
+        <v>770001</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>00000922</t>
+        </is>
+      </c>
+      <c r="B476" t="n">
+        <v>575001</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>00000916</t>
+        </is>
+      </c>
+      <c r="B477" t="n">
+        <v>3620001</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>00000923</t>
+        </is>
+      </c>
+      <c r="B478" t="n">
+        <v>200001</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>00000925</t>
+        </is>
+      </c>
+      <c r="B479" t="n">
+        <v>65001</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>00000924</t>
+        </is>
+      </c>
+      <c r="B480" t="n">
+        <v>110001</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>00000927</t>
+        </is>
+      </c>
+      <c r="B481" t="n">
+        <v>170001</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>00000928</t>
+        </is>
+      </c>
+      <c r="B482" t="n">
+        <v>425001</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>00000926</t>
+        </is>
+      </c>
+      <c r="B483" t="n">
+        <v>635001</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>00000930</t>
+        </is>
+      </c>
+      <c r="B484" t="n">
+        <v>65001</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>00000931</t>
+        </is>
+      </c>
+      <c r="B485" t="n">
+        <v>185001</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>00000932</t>
+        </is>
+      </c>
+      <c r="B486" t="n">
+        <v>320001</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>00000933</t>
+        </is>
+      </c>
+      <c r="B487" t="n">
+        <v>185001</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>00000934</t>
+        </is>
+      </c>
+      <c r="B488" t="n">
+        <v>125001</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>00000905</t>
+        </is>
+      </c>
+      <c r="B489" t="n">
+        <v>7700001</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>00000936</t>
+        </is>
+      </c>
+      <c r="B490" t="n">
+        <v>185001</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>00000935</t>
+        </is>
+      </c>
+      <c r="B491" t="n">
+        <v>890001</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>00000938</t>
+        </is>
+      </c>
+      <c r="B492" t="n">
+        <v>725001</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>00000939</t>
+        </is>
+      </c>
+      <c r="B493" t="n">
+        <v>410001</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>00000940</t>
+        </is>
+      </c>
+      <c r="B494" t="n">
+        <v>140001</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>00000929</t>
+        </is>
+      </c>
+      <c r="B495" t="n">
+        <v>3680001</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>00000941</t>
+        </is>
+      </c>
+      <c r="B496" t="n">
+        <v>905001</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>00000943</t>
+        </is>
+      </c>
+      <c r="B497" t="n">
+        <v>185001</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>00000937</t>
+        </is>
+      </c>
+      <c r="B498" t="n">
+        <v>3215001</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>00000945</t>
+        </is>
+      </c>
+      <c r="B499" t="n">
+        <v>95001</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>00000946</t>
+        </is>
+      </c>
+      <c r="B500" t="n">
+        <v>110001</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>00000947</t>
+        </is>
+      </c>
+      <c r="B501" t="n">
+        <v>170001</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>00000948</t>
+        </is>
+      </c>
+      <c r="B502" t="n">
+        <v>365001</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>00000949</t>
+        </is>
+      </c>
+      <c r="B503" t="n">
+        <v>155001</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>00000950</t>
+        </is>
+      </c>
+      <c r="B504" t="n">
+        <v>200001</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>00000951</t>
+        </is>
+      </c>
+      <c r="B505" t="n">
+        <v>80001</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>00000942</t>
+        </is>
+      </c>
+      <c r="B506" t="n">
+        <v>2840001</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>00000944</t>
+        </is>
+      </c>
+      <c r="B507" t="n">
+        <v>2495001</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>00000952</t>
+        </is>
+      </c>
+      <c r="B508" t="n">
+        <v>905001</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>00000954</t>
+        </is>
+      </c>
+      <c r="B509" t="n">
+        <v>350001</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>00000955</t>
+        </is>
+      </c>
+      <c r="B510" t="n">
+        <v>110001</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>00000956</t>
+        </is>
+      </c>
+      <c r="B511" t="n">
+        <v>215001</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>00000958</t>
+        </is>
+      </c>
+      <c r="B512" t="n">
+        <v>110001</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>00000953</t>
+        </is>
+      </c>
+      <c r="B513" t="n">
+        <v>950001</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>00000957</t>
+        </is>
+      </c>
+      <c r="B514" t="n">
+        <v>455001</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>00000960</t>
+        </is>
+      </c>
+      <c r="B515" t="n">
+        <v>245001</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>00000962</t>
+        </is>
+      </c>
+      <c r="B516" t="n">
+        <v>65001</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>00000961</t>
+        </is>
+      </c>
+      <c r="B517" t="n">
+        <v>1385001</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>00000963</t>
+        </is>
+      </c>
+      <c r="B518" t="n">
+        <v>1325001</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>00000965</t>
+        </is>
+      </c>
+      <c r="B519" t="n">
+        <v>185001</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>00000964</t>
+        </is>
+      </c>
+      <c r="B520" t="n">
+        <v>515001</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>00000966</t>
+        </is>
+      </c>
+      <c r="B521" t="n">
+        <v>380001</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>00000967</t>
+        </is>
+      </c>
+      <c r="B522" t="n">
+        <v>335001</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>00000968</t>
+        </is>
+      </c>
+      <c r="B523" t="n">
+        <v>80001</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>00000969</t>
+        </is>
+      </c>
+      <c r="B524" t="n">
+        <v>185001</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>00000971</t>
+        </is>
+      </c>
+      <c r="B525" t="n">
+        <v>350001</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>00000970</t>
+        </is>
+      </c>
+      <c r="B526" t="n">
+        <v>1475001</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>00000973</t>
+        </is>
+      </c>
+      <c r="B527" t="n">
+        <v>125001</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>00000972</t>
+        </is>
+      </c>
+      <c r="B528" t="n">
+        <v>1385001</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>00000975</t>
+        </is>
+      </c>
+      <c r="B529" t="n">
+        <v>110001</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>00000976</t>
+        </is>
+      </c>
+      <c r="B530" t="n">
+        <v>245001</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>00000977</t>
+        </is>
+      </c>
+      <c r="B531" t="n">
+        <v>65001</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>00000978</t>
+        </is>
+      </c>
+      <c r="B532" t="n">
+        <v>560001</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>00000979</t>
+        </is>
+      </c>
+      <c r="B533" t="n">
+        <v>1655001</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>00000980</t>
+        </is>
+      </c>
+      <c r="B534" t="n">
+        <v>125001</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>00000981</t>
+        </is>
+      </c>
+      <c r="B535" t="n">
+        <v>245001</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>00000974</t>
+        </is>
+      </c>
+      <c r="B536" t="n">
+        <v>4505001</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>00000983</t>
+        </is>
+      </c>
+      <c r="B537" t="n">
+        <v>425001</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>00000984</t>
+        </is>
+      </c>
+      <c r="B538" t="n">
+        <v>695001</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>00000985</t>
+        </is>
+      </c>
+      <c r="B539" t="n">
+        <v>410001</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>00000986</t>
+        </is>
+      </c>
+      <c r="B540" t="n">
+        <v>170001</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>00000982</t>
+        </is>
+      </c>
+      <c r="B541" t="n">
+        <v>3020001</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>00000988</t>
+        </is>
+      </c>
+      <c r="B542" t="n">
+        <v>95001</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>00000987</t>
+        </is>
+      </c>
+      <c r="B543" t="n">
+        <v>290001</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>00000989</t>
+        </is>
+      </c>
+      <c r="B544" t="n">
+        <v>140001</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>00000991</t>
+        </is>
+      </c>
+      <c r="B545" t="n">
+        <v>95001</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>00000992</t>
+        </is>
+      </c>
+      <c r="B546" t="n">
+        <v>95001</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>00000993</t>
+        </is>
+      </c>
+      <c r="B547" t="n">
+        <v>110001</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>00000959</t>
+        </is>
+      </c>
+      <c r="B548" t="n">
+        <v>11135001</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>00000994</t>
+        </is>
+      </c>
+      <c r="B549" t="n">
+        <v>515001</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>00000990</t>
+        </is>
+      </c>
+      <c r="B550" t="n">
+        <v>1370001</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>00000997</t>
+        </is>
+      </c>
+      <c r="B551" t="n">
+        <v>185001</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>00000998</t>
+        </is>
+      </c>
+      <c r="B552" t="n">
+        <v>170001</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>00000999</t>
+        </is>
+      </c>
+      <c r="B553" t="n">
+        <v>125001</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>00000996</t>
+        </is>
+      </c>
+      <c r="B554" t="n">
+        <v>1355001</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>00001001</t>
+        </is>
+      </c>
+      <c r="B555" t="n">
+        <v>230001</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>00001000</t>
+        </is>
+      </c>
+      <c r="B556" t="n">
+        <v>545001</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>00001003</t>
+        </is>
+      </c>
+      <c r="B557" t="n">
+        <v>65001</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>00001002</t>
+        </is>
+      </c>
+      <c r="B558" t="n">
+        <v>110001</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>00001005</t>
+        </is>
+      </c>
+      <c r="B559" t="n">
+        <v>170001</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>00001006</t>
+        </is>
+      </c>
+      <c r="B560" t="n">
+        <v>755001</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>00000995</t>
+        </is>
+      </c>
+      <c r="B561" t="n">
+        <v>3170001</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>00001007</t>
+        </is>
+      </c>
+      <c r="B562" t="n">
+        <v>545001</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>00001008</t>
+        </is>
+      </c>
+      <c r="B563" t="n">
+        <v>380001</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>00001009</t>
+        </is>
+      </c>
+      <c r="B564" t="n">
+        <v>230001</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>00001010</t>
+        </is>
+      </c>
+      <c r="B565" t="n">
+        <v>620001</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>00001011</t>
+        </is>
+      </c>
+      <c r="B566" t="n">
+        <v>1400001</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>00001004</t>
+        </is>
+      </c>
+      <c r="B567" t="n">
+        <v>4520001</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>00001012</t>
+        </is>
+      </c>
+      <c r="B568" t="n">
+        <v>770001</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>00001013</t>
+        </is>
+      </c>
+      <c r="B569" t="n">
+        <v>65001</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>00001014</t>
+        </is>
+      </c>
+      <c r="B570" t="n">
+        <v>110001</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>00001016</t>
+        </is>
+      </c>
+      <c r="B571" t="n">
+        <v>200001</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>00001017</t>
+        </is>
+      </c>
+      <c r="B572" t="n">
+        <v>230001</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>00001018</t>
+        </is>
+      </c>
+      <c r="B573" t="n">
+        <v>1070001</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>00001015</t>
+        </is>
+      </c>
+      <c r="B574" t="n">
+        <v>1760001</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>00001020</t>
+        </is>
+      </c>
+      <c r="B575" t="n">
+        <v>365001</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>00001019</t>
+        </is>
+      </c>
+      <c r="B576" t="n">
+        <v>500001</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>00001021</t>
+        </is>
+      </c>
+      <c r="B577" t="n">
+        <v>1115001</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>00001023</t>
+        </is>
+      </c>
+      <c r="B578" t="n">
+        <v>80001</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>00001024</t>
+        </is>
+      </c>
+      <c r="B579" t="n">
+        <v>2885001</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>00001025</t>
+        </is>
+      </c>
+      <c r="B580" t="n">
+        <v>95001</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>00001026</t>
+        </is>
+      </c>
+      <c r="B581" t="n">
+        <v>245001</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>00001027</t>
+        </is>
+      </c>
+      <c r="B582" t="n">
+        <v>740001</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>00001028</t>
+        </is>
+      </c>
+      <c r="B583" t="n">
+        <v>110001</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>00001029</t>
+        </is>
+      </c>
+      <c r="B584" t="n">
+        <v>515001</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>00001022</t>
+        </is>
+      </c>
+      <c r="B585" t="n">
+        <v>7835001</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>00001030</t>
+        </is>
+      </c>
+      <c r="B586" t="n">
+        <v>3275001</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>00001031</t>
+        </is>
+      </c>
+      <c r="B587" t="n">
+        <v>1520001</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>00001033</t>
+        </is>
+      </c>
+      <c r="B588" t="n">
+        <v>155001</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>00001032</t>
+        </is>
+      </c>
+      <c r="B589" t="n">
+        <v>635001</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>00001035</t>
+        </is>
+      </c>
+      <c r="B590" t="n">
+        <v>185001</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>00001036</t>
+        </is>
+      </c>
+      <c r="B591" t="n">
+        <v>110001</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>00001037</t>
+        </is>
+      </c>
+      <c r="B592" t="n">
+        <v>230001</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>00001034</t>
+        </is>
+      </c>
+      <c r="B593" t="n">
+        <v>905001</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>00001038</t>
+        </is>
+      </c>
+      <c r="B594" t="n">
+        <v>500001</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>00001039</t>
+        </is>
+      </c>
+      <c r="B595" t="n">
+        <v>125001</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>00001040</t>
+        </is>
+      </c>
+      <c r="B596" t="n">
+        <v>110001</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>00001041</t>
+        </is>
+      </c>
+      <c r="B597" t="n">
+        <v>770001</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>00001042</t>
+        </is>
+      </c>
+      <c r="B598" t="n">
+        <v>1445001</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t>00001044</t>
+        </is>
+      </c>
+      <c r="B599" t="n">
+        <v>80001</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>00001045</t>
+        </is>
+      </c>
+      <c r="B600" t="n">
+        <v>455001</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>00001046</t>
+        </is>
+      </c>
+      <c r="B601" t="n">
+        <v>110001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
